--- a/CB Done.xlsx
+++ b/CB Done.xlsx
@@ -40065,8 +40065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N746"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J381" sqref="J381"/>
+    <sheetView tabSelected="1" topLeftCell="A724" workbookViewId="0">
+      <selection activeCell="K636" sqref="K636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40152,46 +40152,46 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>1171</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="15">
+        <v>1171</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="16">
         <v>2260</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="6">
-        <v>1</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="6">
+      <c r="H3" s="16">
+        <v>1</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="16">
         <v>207</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="18">
         <v>0.39583333333333331</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="18">
         <v>0.43055555555555558</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="19">
         <v>195001411</v>
       </c>
     </row>
@@ -66996,7 +66996,7 @@
         <v>116</v>
       </c>
       <c r="F614" s="6">
-        <v>1007</v>
+        <v>1026</v>
       </c>
       <c r="G614" s="6">
         <v>2</v>
@@ -67005,7 +67005,7 @@
         <v>1</v>
       </c>
       <c r="I614" s="6" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J614" s="6" t="s">
         <v>113</v>
@@ -67040,7 +67040,7 @@
         <v>116</v>
       </c>
       <c r="F615" s="6">
-        <v>1007</v>
+        <v>1026</v>
       </c>
       <c r="G615" s="6">
         <v>2</v>
@@ -67049,7 +67049,7 @@
         <v>1</v>
       </c>
       <c r="I615" s="6" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J615" s="6" t="s">
         <v>113</v>
@@ -67084,7 +67084,7 @@
         <v>116</v>
       </c>
       <c r="F616" s="6">
-        <v>1007</v>
+        <v>1026</v>
       </c>
       <c r="G616" s="6">
         <v>2</v>
@@ -67093,7 +67093,7 @@
         <v>1</v>
       </c>
       <c r="I616" s="6" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J616" s="6" t="s">
         <v>113</v>
@@ -67128,7 +67128,7 @@
         <v>116</v>
       </c>
       <c r="F617" s="6">
-        <v>1007</v>
+        <v>1026</v>
       </c>
       <c r="G617" s="6">
         <v>2</v>
@@ -67137,7 +67137,7 @@
         <v>1</v>
       </c>
       <c r="I617" s="6" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J617" s="6" t="s">
         <v>113</v>
@@ -67172,7 +67172,7 @@
         <v>116</v>
       </c>
       <c r="F618" s="6">
-        <v>1007</v>
+        <v>1026</v>
       </c>
       <c r="G618" s="6">
         <v>2</v>
@@ -67181,7 +67181,7 @@
         <v>1</v>
       </c>
       <c r="I618" s="6" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J618" s="6" t="s">
         <v>113</v>
@@ -67216,7 +67216,7 @@
         <v>116</v>
       </c>
       <c r="F619" s="6">
-        <v>1007</v>
+        <v>1026</v>
       </c>
       <c r="G619" s="6">
         <v>2</v>
@@ -67225,7 +67225,7 @@
         <v>1</v>
       </c>
       <c r="I619" s="6" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J619" s="6" t="s">
         <v>113</v>
@@ -67304,7 +67304,7 @@
         <v>116</v>
       </c>
       <c r="F621" s="6">
-        <v>1007</v>
+        <v>1026</v>
       </c>
       <c r="G621" s="6">
         <v>2</v>
@@ -67313,7 +67313,7 @@
         <v>1</v>
       </c>
       <c r="I621" s="6" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J621" s="6" t="s">
         <v>113</v>
@@ -67348,7 +67348,7 @@
         <v>116</v>
       </c>
       <c r="F622" s="6">
-        <v>1007</v>
+        <v>1026</v>
       </c>
       <c r="G622" s="6">
         <v>2</v>
@@ -67357,7 +67357,7 @@
         <v>1</v>
       </c>
       <c r="I622" s="6" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J622" s="6" t="s">
         <v>113</v>
@@ -67392,7 +67392,7 @@
         <v>116</v>
       </c>
       <c r="F623" s="6">
-        <v>1007</v>
+        <v>1026</v>
       </c>
       <c r="G623" s="6">
         <v>2</v>
@@ -67401,7 +67401,7 @@
         <v>1</v>
       </c>
       <c r="I623" s="6" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J623" s="6" t="s">
         <v>113</v>
@@ -67436,7 +67436,7 @@
         <v>116</v>
       </c>
       <c r="F624" s="6">
-        <v>1007</v>
+        <v>1026</v>
       </c>
       <c r="G624" s="6">
         <v>2</v>
@@ -67445,7 +67445,7 @@
         <v>1</v>
       </c>
       <c r="I624" s="6" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J624" s="6" t="s">
         <v>113</v>
@@ -67480,7 +67480,7 @@
         <v>116</v>
       </c>
       <c r="F625" s="6">
-        <v>1007</v>
+        <v>1026</v>
       </c>
       <c r="G625" s="6">
         <v>2</v>
@@ -67489,7 +67489,7 @@
         <v>1</v>
       </c>
       <c r="I625" s="6" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J625" s="6" t="s">
         <v>113</v>
@@ -67524,7 +67524,7 @@
         <v>116</v>
       </c>
       <c r="F626" s="6">
-        <v>1007</v>
+        <v>1026</v>
       </c>
       <c r="G626" s="6">
         <v>2</v>
@@ -67533,7 +67533,7 @@
         <v>1</v>
       </c>
       <c r="I626" s="6" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J626" s="6" t="s">
         <v>113</v>
@@ -67656,7 +67656,7 @@
         <v>116</v>
       </c>
       <c r="F629" s="6">
-        <v>1007</v>
+        <v>1026</v>
       </c>
       <c r="G629" s="6">
         <v>2</v>
@@ -67665,7 +67665,7 @@
         <v>1</v>
       </c>
       <c r="I629" s="6" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J629" s="6" t="s">
         <v>113</v>
@@ -67700,7 +67700,7 @@
         <v>116</v>
       </c>
       <c r="F630" s="6">
-        <v>1007</v>
+        <v>1026</v>
       </c>
       <c r="G630" s="6">
         <v>2</v>
@@ -67709,7 +67709,7 @@
         <v>1</v>
       </c>
       <c r="I630" s="6" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J630" s="6" t="s">
         <v>113</v>
@@ -67744,7 +67744,7 @@
         <v>116</v>
       </c>
       <c r="F631" s="6">
-        <v>1007</v>
+        <v>1026</v>
       </c>
       <c r="G631" s="6">
         <v>2</v>
@@ -67753,7 +67753,7 @@
         <v>1</v>
       </c>
       <c r="I631" s="6" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J631" s="6" t="s">
         <v>113</v>
@@ -67788,7 +67788,7 @@
         <v>116</v>
       </c>
       <c r="F632" s="6">
-        <v>1007</v>
+        <v>1026</v>
       </c>
       <c r="G632" s="6">
         <v>2</v>
@@ -67797,7 +67797,7 @@
         <v>1</v>
       </c>
       <c r="I632" s="6" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J632" s="6" t="s">
         <v>113</v>
@@ -67832,7 +67832,7 @@
         <v>116</v>
       </c>
       <c r="F633" s="6">
-        <v>1007</v>
+        <v>1026</v>
       </c>
       <c r="G633" s="6">
         <v>2</v>
@@ -67841,7 +67841,7 @@
         <v>1</v>
       </c>
       <c r="I633" s="6" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J633" s="6" t="s">
         <v>113</v>
@@ -67964,7 +67964,7 @@
         <v>116</v>
       </c>
       <c r="F636" s="6">
-        <v>1007</v>
+        <v>1026</v>
       </c>
       <c r="G636" s="6">
         <v>2</v>
@@ -67973,7 +67973,7 @@
         <v>1</v>
       </c>
       <c r="I636" s="6" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J636" s="6" t="s">
         <v>113</v>
@@ -68008,7 +68008,7 @@
         <v>116</v>
       </c>
       <c r="F637" s="6">
-        <v>1007</v>
+        <v>1026</v>
       </c>
       <c r="G637" s="6">
         <v>2</v>
@@ -68017,7 +68017,7 @@
         <v>1</v>
       </c>
       <c r="I637" s="6" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J637" s="6" t="s">
         <v>113</v>
@@ -68052,7 +68052,7 @@
         <v>116</v>
       </c>
       <c r="F638" s="6">
-        <v>1007</v>
+        <v>1026</v>
       </c>
       <c r="G638" s="6">
         <v>2</v>
@@ -68061,7 +68061,7 @@
         <v>1</v>
       </c>
       <c r="I638" s="6" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J638" s="6" t="s">
         <v>113</v>
@@ -68096,7 +68096,7 @@
         <v>116</v>
       </c>
       <c r="F639" s="6">
-        <v>1007</v>
+        <v>1025</v>
       </c>
       <c r="G639" s="6">
         <v>2</v>
@@ -68140,7 +68140,7 @@
         <v>116</v>
       </c>
       <c r="F640" s="12">
-        <v>1007</v>
+        <v>1026</v>
       </c>
       <c r="G640" s="12">
         <v>2</v>
@@ -68148,8 +68148,8 @@
       <c r="H640" s="12">
         <v>1</v>
       </c>
-      <c r="I640" s="12" t="s">
-        <v>49</v>
+      <c r="I640" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="J640" s="12" t="s">
         <v>113</v>
